--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-638123.4571610597</v>
+        <v>-644559.9817366475</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12435655.55590712</v>
+        <v>12435065.5765167</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>252.0440679191105</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>30.2293355613653</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>125.1182572769897</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>19.09055326624303</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>92.23267215918059</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>90.12842621729081</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>57.98752958276631</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>137.9261895166645</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>47.63147056405778</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>28.12062365094877</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>53.6217932255811</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="D8" t="n">
-        <v>31.01518306733493</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.31896351648552</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>255.9116134808058</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>129.8683418656378</v>
+        <v>21.95949494291579</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.22901965252381</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.46405415481159</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>100.6675882927504</v>
+        <v>48.63956445460348</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.82013996882286</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.26037913078601</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,7 +2378,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954283</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568062</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291036</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838917</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828929</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696767</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162031</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431761</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945460002</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643975</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931886</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908613</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147826</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.5873082280503</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922223</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367815</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920547</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133776</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404474</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480635</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947761</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1109.543545714763</v>
+        <v>869.1849342799364</v>
       </c>
       <c r="C2" t="n">
-        <v>1109.543545714763</v>
+        <v>869.1849342799364</v>
       </c>
       <c r="D2" t="n">
-        <v>724.1024169314312</v>
+        <v>483.7438054966042</v>
       </c>
       <c r="E2" t="n">
-        <v>469.5124493363701</v>
+        <v>81.1602806131487</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>50.62559822793123</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035832</v>
+        <v>114.5970879866888</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>607.9173797052176</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032206</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704475</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596804</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596804</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.037326457873</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.037326457873</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.03829142616</v>
+        <v>1666.170389070732</v>
       </c>
       <c r="X2" t="n">
-        <v>1510.03829142616</v>
+        <v>1666.170389070732</v>
       </c>
       <c r="Y2" t="n">
-        <v>1510.03829142616</v>
+        <v>1269.679679991333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.7972297032391</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>682.1429992633313</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>552.0540318848116</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272463</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103781</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822426</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284347</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475505</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653896</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875483</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875483</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466464</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182862</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635817</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535686</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535686</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214327</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585395</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718681</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068693</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641442004</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.8739295686531</v>
+        <v>657.6875369810959</v>
       </c>
       <c r="C4" t="n">
-        <v>73.8739295686531</v>
+        <v>487.4824190470852</v>
       </c>
       <c r="D4" t="n">
-        <v>73.8739295686531</v>
+        <v>487.4824190470852</v>
       </c>
       <c r="E4" t="n">
-        <v>73.8739295686531</v>
+        <v>331.9236069062877</v>
       </c>
       <c r="F4" t="n">
-        <v>73.8739295686531</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G4" t="n">
-        <v>73.8739295686531</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H4" t="n">
-        <v>73.8739295686531</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>73.8739295686531</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>352.246263572258</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>352.246263572258</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X4" t="n">
-        <v>259.0819482599544</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.0819482599544</v>
+        <v>676.9709241187152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.5124493363701</v>
+        <v>678.2966927093166</v>
       </c>
       <c r="C5" t="n">
-        <v>469.5124493363701</v>
+        <v>678.2966927093166</v>
       </c>
       <c r="D5" t="n">
-        <v>469.5124493363701</v>
+        <v>292.8555639259844</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363701</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475505</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475505</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035832</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>114.5970879866888</v>
       </c>
       <c r="L5" t="n">
-        <v>663.4515315628599</v>
+        <v>607.9173797052176</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572954</v>
+        <v>1121.520058314906</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572954</v>
+        <v>1635.122736924594</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465282</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596804</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023274</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964325</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964325</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398924</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.523771398924</v>
+        <v>1049.295727741029</v>
       </c>
       <c r="W5" t="n">
-        <v>1655.950509194109</v>
+        <v>678.2966927093166</v>
       </c>
       <c r="X5" t="n">
-        <v>1266.497904127166</v>
+        <v>678.2966927093166</v>
       </c>
       <c r="Y5" t="n">
-        <v>870.007195047767</v>
+        <v>678.2966927093166</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>831.5267954450444</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948782</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163586</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272463</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103781</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822426</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284347</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591881</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591881</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182862</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182862</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737752</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737752</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637621</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.86848083653</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515171</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886239</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019525</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369537</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.5267954450444</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.6329346883093</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="C7" t="n">
-        <v>367.2282643338156</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D7" t="n">
-        <v>367.2282643338156</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="E7" t="n">
-        <v>367.2282643338156</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338156</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G7" t="n">
-        <v>198.9742104332611</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475505</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>605.4564397284817</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6329346883093</v>
+        <v>382.344378545125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1358.797017469107</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C8" t="n">
-        <v>965.6215159720373</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>934.2930482272545</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>531.7095233437991</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1392.575851912381</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1358.797017469107</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1358.797017469107</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>745.9439088256454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>745.9439088256454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>714.3085921423267</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>558.7497800015292</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>330.643372170366</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>745.9439088256454</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C11" t="n">
         <v>1711.843491816804</v>
@@ -5027,22 +5027,22 @@
         <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2974.776241907152</v>
+        <v>2653.397015556277</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.573482021633</v>
+        <v>2354.194255670758</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.917152100884</v>
+        <v>2036.537925750009</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.222718167679</v>
+        <v>1711.843491816804</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.0296513030275</v>
+        <v>391.1926183007852</v>
       </c>
       <c r="C13" t="n">
-        <v>411.6208085152107</v>
+        <v>292.7837755129683</v>
       </c>
       <c r="D13" t="n">
-        <v>411.6208085152107</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="E13" t="n">
-        <v>327.8582715206071</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F13" t="n">
-        <v>242.328611879774</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8708331254133</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628188</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401903</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X13" t="n">
-        <v>661.3454373401903</v>
+        <v>504.6043618458925</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.0296513030275</v>
+        <v>504.6043618458925</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.22271816768</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766006</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185756</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>3004.271952586837</v>
+        <v>2962.108232106552</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586837</v>
+        <v>2662.905472221033</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666088</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732883</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.5886577032644</v>
+        <v>571.4129340497493</v>
       </c>
       <c r="C16" t="n">
-        <v>207.1798149154475</v>
+        <v>473.0040912619324</v>
       </c>
       <c r="D16" t="n">
-        <v>207.1798149154475</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="E16" t="n">
-        <v>123.4172779208438</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1455.500177199535</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1455.500177199535</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1241.85766058763</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628193</v>
+        <v>1047.674590554648</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401909</v>
+        <v>836.1404636320194</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693677</v>
+        <v>836.1404636320194</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.0004012483718</v>
+        <v>684.8246775948567</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,10 +5683,10 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960402</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>2273.334693965057</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.334693965057</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2273.334693965057</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6382,16 +6382,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6464,19 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>330.2146855069349</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189326</v>
+        <v>91.97314162835515</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010033</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054614</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419146</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038545</v>
+        <v>2658.65634142638</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897137</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038085</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038085</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.2744199085</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397282</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761245</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394127</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291779</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282492</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076171</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>182.1918110717787</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>2015.152299780547</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965148</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918683</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237474</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123142</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546514</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834612</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431953</v>
+        <v>86.73045008374208</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076171</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>332.155032207406</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082756</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736096</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.310069904819</v>
+        <v>794.6511495305427</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673597</v>
+        <v>1033.381832577062</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450175</v>
+        <v>1264.910118928623</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746648</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308589</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420503</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518101</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395549</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000968</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124442</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584518</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7254,19 +7254,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2037.722613466195</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,19 +7433,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7494,10 +7494,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7734,13 +7734,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7819,13 +7819,13 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381771</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>482.6268748451272</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>208.0226058553103</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.08286448375</v>
+        <v>292.4021013970205</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381771</v>
       </c>
       <c r="L5" t="n">
-        <v>270.7469002676786</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321653</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269471</v>
+        <v>492.8960778890037</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>550.900652917313</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,7 +9015,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,16 +10191,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852371</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,22 +10428,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450061</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,22 +10902,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.2773539239171</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11142,13 +11142,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23258,7 +23258,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362793</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>137.7390869431471</v>
+        <v>245.647933865869</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>60.61643348086521</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>135.1971524453032</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>166.9398405160345</v>
+        <v>218.9678643541814</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>88.88947061572131</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.54224904600513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1092862.770125068</v>
+        <v>1092561.996318188</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1092862.770125068</v>
+        <v>1092561.996318188</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969058.4335385599</v>
+        <v>969058.4335385598</v>
       </c>
     </row>
     <row r="7">
@@ -26317,31 +26317,31 @@
         <v>180332.1780933568</v>
       </c>
       <c r="D2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="E2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="F2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="G2" t="n">
         <v>180332.1780933569</v>
       </c>
       <c r="H2" t="n">
+        <v>180332.1780933569</v>
+      </c>
+      <c r="I2" t="n">
         <v>180332.1780933568</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>180332.1780933569</v>
-      </c>
-      <c r="J2" t="n">
-        <v>180332.1780933568</v>
       </c>
       <c r="K2" t="n">
         <v>180332.1780933568</v>
       </c>
       <c r="L2" t="n">
-        <v>180332.1780933572</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="M2" t="n">
         <v>180332.1780933569</v>
@@ -26350,7 +26350,7 @@
         <v>180332.1780933569</v>
       </c>
       <c r="O2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="P2" t="n">
         <v>180332.1780933569</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918562</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062162</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945028</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728534</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892383</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892383</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001383</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246632.8761277517</v>
+        <v>-243183.7517340973</v>
       </c>
       <c r="C6" t="n">
-        <v>-64427.92783589535</v>
+        <v>-69325.09470004188</v>
       </c>
       <c r="D6" t="n">
-        <v>-69867.46981171949</v>
+        <v>-77603.7590351114</v>
       </c>
       <c r="E6" t="n">
-        <v>-92938.34626537851</v>
+        <v>-93148.07781206816</v>
       </c>
       <c r="F6" t="n">
-        <v>19184.21520866605</v>
+        <v>18974.4836619764</v>
       </c>
       <c r="G6" t="n">
-        <v>-60010.62176632119</v>
+        <v>-60010.62176632113</v>
       </c>
       <c r="H6" t="n">
+        <v>-12585.29622963924</v>
+      </c>
+      <c r="I6" t="n">
         <v>-12585.29622963927</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>-219110.9286723516</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-18825.06463242227</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-78056.49077751562</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-55837.82070045039</v>
+      </c>
+      <c r="N6" t="n">
         <v>-12585.29622963924</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-225627.213826925</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-18825.06463242224</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-74007.6535670428</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-54786.12568926218</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-12585.29622963927</v>
       </c>
       <c r="O6" t="n">
         <v>-40352.99027241042</v>
       </c>
       <c r="P6" t="n">
-        <v>-12585.29622963915</v>
+        <v>-12585.29622963921</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095213</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660668</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551373</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773723</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407174</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485697</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>146.5136217155104</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>382.4961585239567</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27433,7 +27433,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.963768703231494</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>164.2653852381452</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>139.5068468356661</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>308.42926341733</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>309.3015150986291</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.22149861884421</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.7829716713473</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>140.3824431037219</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,10 +27786,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>178.1177257692656</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.7885616961714</v>
       </c>
       <c r="D8" t="n">
-        <v>350.571534428164</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,13 +27907,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>122.7578184500249</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>26.67279035971228</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634528467</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28980,20 +28980,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29098,7 +29098,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="X23" t="n">
         <v>130.3599693155844</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,19 +29296,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,13 +29545,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>48.6599273883362</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000706</v>
+        <v>81.10808140893403</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000706</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000706</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000706</v>
+        <v>76.79385455031448</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254694</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000706</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30891,7 +30891,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.83216285893974</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N2" t="n">
-        <v>333.5083835073431</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>117.9622589983921</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344381</v>
+        <v>200.0149793477086</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285893974</v>
       </c>
       <c r="L5" t="n">
-        <v>117.4987305371869</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344381</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776352</v>
+        <v>400.5089558396917</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>458.2130940284241</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,7 +35735,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094873</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,13 +36841,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047994</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>259.4442692519037</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>546.9632523565472</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449817</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458569</v>
+        <v>525.5925267547203</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537661</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.7820836676939</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>374.4832028256914</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791157</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868806</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220906</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528626</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371495</v>
+        <v>241.1421040873933</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269942</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38187,7 +38187,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
